--- a/planning/Ping Pong LED Wall Layout.xlsx
+++ b/planning/Ping Pong LED Wall Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmccafferty/Documents/GitHub/ping-pong-led-wall/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69B319A-2360-F64A-83B0-348F8E4B8A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80109764-0051-454D-B119-491BDBD49A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{FFDF90EB-80D2-0B49-A324-17C09162E1BB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="LED Print Template" sheetId="3" r:id="rId2"/>
     <sheet name="Python Pixel Mapping" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Python Var</t>
+  </si>
+  <si>
+    <t>Matrix Mapping</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,19 +650,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29F6655-9F27-4142-8603-081A3661B280}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16" width="4.1640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="5.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -703,8 +710,11 @@
       <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -753,8 +763,12 @@
       <c r="P2" s="10">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" t="str">
+        <f>CONCATENATE(B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2,",",P2,",")</f>
+        <v>255,254,253,252,251,250,249,248,247,246,245,244,243,242,241,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -803,8 +817,12 @@
       <c r="P3" s="10">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R18" si="0">CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3,",",P3,",")</f>
+        <v>226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -853,8 +871,12 @@
       <c r="P4" s="10">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>225,224,223,222,221,220,219,218,217,216,215,214,213,212,211,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -903,8 +925,12 @@
       <c r="P5" s="10">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -953,8 +979,12 @@
       <c r="P6" s="10">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>195,194,193,192,191,190,189,188,187,186,185,184,183,182,181,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1003,8 +1033,12 @@
       <c r="P7" s="10">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>166,167,168,169,170,171,172,173,174,175,176,177,178,179,180,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1053,8 +1087,12 @@
       <c r="P8" s="10">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>165,164,163,162,161,160,159,158,157,156,155,154,153,152,151,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1103,8 +1141,12 @@
       <c r="P9" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1153,8 +1195,12 @@
       <c r="P10" s="10">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>135,134,133,132,131,130,129,128,127,126,125,124,123,122,121,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1203,8 +1249,12 @@
       <c r="P11" s="10">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1253,8 +1303,12 @@
       <c r="P12" s="10">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>105,104,103,102,101,100,99,98,97,96,95,94,93,92,91,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1303,8 +1357,12 @@
       <c r="P13" s="12">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
+        <v>76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1353,8 +1411,12 @@
       <c r="P14" s="10">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" t="str">
+        <f t="shared" si="0"/>
+        <v>75,74,73,72,71,70,69,68,67,66,65,64,63,62,61,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1403,8 +1465,12 @@
       <c r="P15" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v>46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1453,8 +1519,12 @@
       <c r="P16" s="10">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R16" t="str">
+        <f t="shared" si="0"/>
+        <v>45,44,43,42,41,40,39,38,37,36,35,34,33,32,31,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1503,8 +1573,12 @@
       <c r="P17" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
+        <v>16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1555,6 +1629,10 @@
       </c>
       <c r="Q18" s="6">
         <v>0</v>
+      </c>
+      <c r="R18" t="str">
+        <f>CONCATENATE(B18,",",C18,",",D18,",",E18,",",F18,",",G18,",",H18,",",I18,",",J18,",",K18,",",L18,",",M18,",",N18,",",O18,",",P18)</f>
+        <v>15,14,13,12,11,10,9,8,7,6,5,4,3,2,1</v>
       </c>
     </row>
   </sheetData>
